--- a/APM files/140291048/140291048 IMPORT 11.3 RT&RP Cloud copy.xlsx
+++ b/APM files/140291048/140291048 IMPORT 11.3 RT&RP Cloud copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/140291048/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF00EEF-DAFA-D449-A6EE-801CD7BA7EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467834D9-9908-AC40-ADAD-57BA45EF8F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89600" yWindow="6220" windowWidth="30240" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10400" yWindow="800" windowWidth="25600" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -1653,9 +1653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="156" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
